--- a/HI-011-111024.xlsx
+++ b/HI-011-111024.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="240">
   <si>
     <t>HOJA DE INSTRUCCIÓN DE INSPECCION/RECIBO DE MATERIA PRIMA</t>
   </si>
@@ -948,6 +948,12 @@
   </si>
   <si>
     <t>2024/114</t>
+  </si>
+  <si>
+    <t>2024/115</t>
+  </si>
+  <si>
+    <t>2024/116</t>
   </si>
 </sst>
 </file>
@@ -4389,7 +4395,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
